--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3067988.082846724</v>
+        <v>-3070469.002672183</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C11" t="n">
-        <v>338.3527451838812</v>
+        <v>338.3527451838811</v>
       </c>
       <c r="D11" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335565</v>
       </c>
       <c r="E11" t="n">
-        <v>355.0102234851354</v>
+        <v>355.0102234851353</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>40.94106504740682</v>
       </c>
       <c r="H11" t="n">
-        <v>26.28428186160856</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.26761520104934</v>
+        <v>82.2676152010494</v>
       </c>
       <c r="T11" t="n">
         <v>176.9978235524937</v>
@@ -1436,7 +1436,7 @@
         <v>342.8109540913426</v>
       </c>
       <c r="Y11" t="n">
-        <v>359.3177920689272</v>
+        <v>359.3177920689271</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C13" t="n">
-        <v>91.34198591836856</v>
+        <v>140.3266745115014</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>121.6953264310859</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,10 +1540,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>139.1056616719018</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>117.8348683271944</v>
+        <v>86.26051497487796</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>62.01200608292083</v>
+        <v>62.01200608292089</v>
       </c>
       <c r="S13" t="n">
-        <v>162.8488787443155</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T13" t="n">
-        <v>192.6288026890428</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U13" t="n">
         <v>259.2916916184863</v>
       </c>
       <c r="V13" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W13" t="n">
-        <v>259.6028517494646</v>
+        <v>259.6028517494645</v>
       </c>
       <c r="X13" t="n">
-        <v>198.7895088019108</v>
+        <v>198.7895088019107</v>
       </c>
       <c r="Y13" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>355.8136950763542</v>
+        <v>355.8136950763541</v>
       </c>
       <c r="C14" t="n">
-        <v>338.3527451838811</v>
+        <v>338.352745183881</v>
       </c>
       <c r="D14" t="n">
-        <v>327.7628950335566</v>
+        <v>327.7628950335564</v>
       </c>
       <c r="E14" t="n">
-        <v>355.0102234851354</v>
+        <v>128.2636707323483</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>26.28428186160658</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.6876178001939</v>
       </c>
       <c r="I14" t="n">
-        <v>14.65678318579953</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.26761520104941</v>
+        <v>82.26761520104979</v>
       </c>
       <c r="T14" t="n">
-        <v>176.9978235524937</v>
+        <v>176.9978235524936</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0750253717756</v>
+        <v>224.0750253717754</v>
       </c>
       <c r="V14" t="n">
-        <v>300.8321118830085</v>
+        <v>300.8321118830084</v>
       </c>
       <c r="W14" t="n">
-        <v>322.3208221302866</v>
+        <v>322.3208221302865</v>
       </c>
       <c r="X14" t="n">
-        <v>342.8109540913426</v>
+        <v>342.8109540913425</v>
       </c>
       <c r="Y14" t="n">
         <v>359.3177920689271</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,22 +1762,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>152.9118335948109</v>
+        <v>152.9118335948108</v>
       </c>
       <c r="C16" t="n">
-        <v>140.3266745115014</v>
+        <v>140.3266745115013</v>
       </c>
       <c r="D16" t="n">
-        <v>121.6953264310859</v>
+        <v>88.44202534652253</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>119.5138160594426</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>86.26051497487771</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>62.01200608292091</v>
+        <v>62.01200608292082</v>
       </c>
       <c r="S16" t="n">
-        <v>162.8488787443153</v>
+        <v>162.8488787443154</v>
       </c>
       <c r="T16" t="n">
-        <v>192.6288026890429</v>
+        <v>192.6288026890427</v>
       </c>
       <c r="U16" t="n">
         <v>259.2916916184864</v>
       </c>
       <c r="V16" t="n">
-        <v>225.2174967367016</v>
+        <v>225.2174967367015</v>
       </c>
       <c r="W16" t="n">
         <v>259.6028517494645</v>
       </c>
       <c r="X16" t="n">
-        <v>198.7895088019107</v>
+        <v>198.7895088019106</v>
       </c>
       <c r="Y16" t="n">
-        <v>191.6645067649684</v>
+        <v>191.6645067649683</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>308.8385584577616</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D17" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E17" t="n">
-        <v>307.963731089131</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G17" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H17" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245704</v>
       </c>
       <c r="T17" t="n">
-        <v>130.0226869339016</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U17" t="n">
-        <v>177.0998887531826</v>
+        <v>177.0998887531829</v>
       </c>
       <c r="V17" t="n">
-        <v>253.856975264416</v>
+        <v>229.6434154087742</v>
       </c>
       <c r="W17" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X17" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y17" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C19" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D19" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5386794408502</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F19" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G19" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H19" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I19" t="n">
-        <v>22.45713720411914</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>15.03686946432838</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S19" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T19" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U19" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V19" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W19" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258359</v>
       </c>
       <c r="X19" t="n">
-        <v>214.2140663782795</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y19" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C20" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D20" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E20" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G20" t="n">
-        <v>337.0264424477345</v>
+        <v>3.974324134331296</v>
       </c>
       <c r="H20" t="n">
-        <v>220.6411254041902</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>35.29247858245685</v>
+        <v>35.29247858245704</v>
       </c>
       <c r="T20" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U20" t="n">
-        <v>177.099888753183</v>
+        <v>177.0998887531826</v>
       </c>
       <c r="V20" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W20" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X20" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y20" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C22" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D22" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E22" t="n">
-        <v>72.5386794408502</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F22" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G22" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H22" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I22" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>77.4365636592908</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S22" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T22" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U22" t="n">
-        <v>212.3165549998939</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V22" t="n">
-        <v>178.242360118109</v>
+        <v>178.2423601181089</v>
       </c>
       <c r="W22" t="n">
-        <v>212.627715130872</v>
+        <v>275.0274093258359</v>
       </c>
       <c r="X22" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y22" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>308.8385584577616</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C23" t="n">
-        <v>291.3776085652886</v>
+        <v>291.3776085652885</v>
       </c>
       <c r="D23" t="n">
-        <v>280.787758414964</v>
+        <v>280.7877584149639</v>
       </c>
       <c r="E23" t="n">
-        <v>308.0350868665428</v>
+        <v>308.0350868665427</v>
       </c>
       <c r="F23" t="n">
-        <v>332.9807625359925</v>
+        <v>332.9807625359924</v>
       </c>
       <c r="G23" t="n">
-        <v>337.0264424477345</v>
+        <v>337.0264424477344</v>
       </c>
       <c r="H23" t="n">
-        <v>220.7124811816015</v>
+        <v>220.7124811816014</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>35.29247858245687</v>
+        <v>35.29247858245677</v>
       </c>
       <c r="T23" t="n">
-        <v>130.0226869339012</v>
+        <v>130.0226869339011</v>
       </c>
       <c r="U23" t="n">
         <v>177.0998887531835</v>
       </c>
       <c r="V23" t="n">
-        <v>253.856975264416</v>
+        <v>253.8569752644158</v>
       </c>
       <c r="W23" t="n">
-        <v>275.3456855116941</v>
+        <v>275.3456855116939</v>
       </c>
       <c r="X23" t="n">
-        <v>295.8358174727501</v>
+        <v>295.83581747275</v>
       </c>
       <c r="Y23" t="n">
-        <v>312.3426554503346</v>
+        <v>312.3426554503345</v>
       </c>
     </row>
     <row r="24">
@@ -2415,7 +2415,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>105.9366969762183</v>
+        <v>105.9366969762182</v>
       </c>
       <c r="C25" t="n">
-        <v>93.35153789290887</v>
+        <v>93.35153789290877</v>
       </c>
       <c r="D25" t="n">
-        <v>74.72018981249339</v>
+        <v>74.72018981249329</v>
       </c>
       <c r="E25" t="n">
-        <v>72.5386794408502</v>
+        <v>72.5386794408501</v>
       </c>
       <c r="F25" t="n">
-        <v>71.52576481721228</v>
+        <v>71.52576481721218</v>
       </c>
       <c r="G25" t="n">
-        <v>92.13052505330926</v>
+        <v>92.13052505330916</v>
       </c>
       <c r="H25" t="n">
-        <v>70.85973170860181</v>
+        <v>70.85973170860171</v>
       </c>
       <c r="I25" t="n">
-        <v>22.45713720411913</v>
+        <v>22.45713720411903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>15.03686946432836</v>
+        <v>15.03686946432826</v>
       </c>
       <c r="S25" t="n">
-        <v>115.8737421257229</v>
+        <v>115.8737421257228</v>
       </c>
       <c r="T25" t="n">
-        <v>145.6536660704502</v>
+        <v>145.6536660704501</v>
       </c>
       <c r="U25" t="n">
-        <v>274.7162491948561</v>
+        <v>212.3165549998938</v>
       </c>
       <c r="V25" t="n">
-        <v>178.242360118109</v>
+        <v>240.6420543130729</v>
       </c>
       <c r="W25" t="n">
-        <v>212.627715130872</v>
+        <v>212.6277151308719</v>
       </c>
       <c r="X25" t="n">
-        <v>151.8143721833182</v>
+        <v>151.8143721833181</v>
       </c>
       <c r="Y25" t="n">
-        <v>144.6893701463758</v>
+        <v>144.6893701463757</v>
       </c>
     </row>
     <row r="26">
@@ -2555,22 +2555,22 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
-        <v>247.6326277687279</v>
+        <v>247.6326277687278</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958326</v>
+        <v>62.2126251695837</v>
       </c>
       <c r="T26" t="n">
-        <v>156.9428335210276</v>
+        <v>156.9428335210275</v>
       </c>
       <c r="U26" t="n">
-        <v>204.0200353403093</v>
+        <v>204.0200353403102</v>
       </c>
       <c r="V26" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2652,7 +2652,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,10 +2679,10 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S27" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T27" t="n">
         <v>190.7165703189231</v>
@@ -2716,22 +2716,22 @@
         <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996197</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797656</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433863</v>
       </c>
       <c r="G28" t="n">
         <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572817</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124547</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145474</v>
+        <v>41.9570160514547</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2767,7 +2767,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U28" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870202</v>
       </c>
       <c r="V28" t="n">
         <v>205.1625067052354</v>
@@ -2776,7 +2776,7 @@
         <v>239.5478617179984</v>
       </c>
       <c r="X28" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704445</v>
       </c>
       <c r="Y28" t="n">
         <v>171.6095167335022</v>
@@ -2843,10 +2843,10 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T29" t="n">
-        <v>156.9428335210278</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403097</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V29" t="n">
         <v>280.7771218515423</v>
@@ -2968,7 +2968,7 @@
         <v>97.77987829572822</v>
       </c>
       <c r="I31" t="n">
-        <v>49.37728379124571</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145478</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S31" t="n">
         <v>142.7938887128493</v>
@@ -3077,13 +3077,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958325</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U32" t="n">
-        <v>204.0200353403088</v>
+        <v>204.0200353403093</v>
       </c>
       <c r="V32" t="n">
         <v>280.7771218515423</v>
@@ -3126,7 +3126,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247751</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3193,19 +3193,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572824</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>172.5738126575766</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870207</v>
       </c>
       <c r="V34" t="n">
         <v>205.1625067052354</v>
@@ -3275,7 +3275,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G35" t="n">
         <v>313.2370054253485</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115157</v>
       </c>
       <c r="U35" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307967</v>
       </c>
       <c r="V35" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W35" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X35" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3363,7 +3363,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E37" t="n">
-        <v>99.70874824091572</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092327</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621583</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>92.08430510333694</v>
+        <v>92.08430510333693</v>
       </c>
       <c r="T37" t="n">
-        <v>121.8642290480643</v>
+        <v>164.0711673124582</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609322</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239898</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F38" t="n">
-        <v>309.1913255136065</v>
+        <v>309.1913255136064</v>
       </c>
       <c r="G38" t="n">
         <v>313.2370054253485</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007088</v>
+        <v>11.50304156007087</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115152</v>
       </c>
       <c r="U38" t="n">
-        <v>153.3104517307972</v>
+        <v>153.3104517307967</v>
       </c>
       <c r="V38" t="n">
-        <v>230.06753824203</v>
+        <v>230.0675382420299</v>
       </c>
       <c r="W38" t="n">
-        <v>251.5562484893081</v>
+        <v>251.556248489308</v>
       </c>
       <c r="X38" t="n">
-        <v>272.0463804503641</v>
+        <v>272.046380450364</v>
       </c>
       <c r="Y38" t="n">
         <v>288.5532184279487</v>
@@ -3600,7 +3600,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.14725995383235</v>
+        <v>82.14725995383233</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052288</v>
+        <v>69.56210087052287</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010741</v>
+        <v>50.93075279010739</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846422</v>
+        <v>48.74924241846421</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482629</v>
+        <v>47.73632779482628</v>
       </c>
       <c r="G40" t="n">
-        <v>119.3005938533746</v>
+        <v>68.34108803092326</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621583</v>
+        <v>47.07029468621582</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>219.5489492761692</v>
+        <v>121.8642290480642</v>
       </c>
       <c r="U40" t="n">
-        <v>188.5271179775079</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>196.6598613601169</v>
       </c>
       <c r="W40" t="n">
-        <v>188.8382781084861</v>
+        <v>188.838278108486</v>
       </c>
       <c r="X40" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>120.8999331239898</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>11.50304156007095</v>
+        <v>11.50304156007116</v>
       </c>
       <c r="T41" t="n">
         <v>106.2332499115153</v>
       </c>
       <c r="U41" t="n">
-        <v>153.3104517307967</v>
+        <v>153.3104517307972</v>
       </c>
       <c r="V41" t="n">
         <v>230.06753824203</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.14725995383242</v>
+        <v>82.14725995383243</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>69.56210087052297</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>50.93075279010749</v>
       </c>
       <c r="E43" t="n">
-        <v>48.74924241846429</v>
+        <v>48.74924241846431</v>
       </c>
       <c r="F43" t="n">
-        <v>47.73632779482637</v>
+        <v>47.73632779482638</v>
       </c>
       <c r="G43" t="n">
-        <v>68.34108803092334</v>
+        <v>68.34108803092336</v>
       </c>
       <c r="H43" t="n">
-        <v>47.0702946862159</v>
+        <v>47.07029468621592</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>42.2069382643929</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>92.08430510333703</v>
       </c>
       <c r="T43" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U43" t="n">
-        <v>239.4866237999589</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V43" t="n">
-        <v>154.4529230957231</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>188.8382781084861</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>128.0249351609323</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>120.8999331239899</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3986,7 +3986,7 @@
         <v>284.2456498441568</v>
       </c>
       <c r="F44" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136065</v>
       </c>
       <c r="G44" t="n">
         <v>313.2370054253485</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>11.50304156007087</v>
+        <v>11.5030415600709</v>
       </c>
       <c r="T44" t="n">
         <v>106.2332499115152</v>
@@ -4034,13 +4034,13 @@
         <v>153.3104517307972</v>
       </c>
       <c r="V44" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W44" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X44" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503641</v>
       </c>
       <c r="Y44" t="n">
         <v>288.5532184279487</v>
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.14725995383233</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>69.56210087052287</v>
+        <v>69.5621008705229</v>
       </c>
       <c r="D46" t="n">
-        <v>50.93075279010739</v>
+        <v>50.93075279010742</v>
       </c>
       <c r="E46" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846423</v>
       </c>
       <c r="F46" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482631</v>
       </c>
       <c r="G46" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092329</v>
       </c>
       <c r="H46" t="n">
-        <v>47.07029468621582</v>
+        <v>47.07029468621585</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>92.08430510333693</v>
+        <v>92.08430510333696</v>
       </c>
       <c r="T46" t="n">
-        <v>121.8642290480642</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>188.5271179775079</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X46" t="n">
-        <v>170.2318734253262</v>
+        <v>170.2318734253258</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1139.306993957417</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C11" t="n">
-        <v>797.5365442767288</v>
+        <v>797.5365442767277</v>
       </c>
       <c r="D11" t="n">
-        <v>466.4629129297023</v>
+        <v>466.4629129297008</v>
       </c>
       <c r="E11" t="n">
-        <v>107.8667275911815</v>
+        <v>107.8667275911802</v>
       </c>
       <c r="F11" t="n">
-        <v>107.8667275911815</v>
+        <v>107.8667275911802</v>
       </c>
       <c r="G11" t="n">
-        <v>107.8667275911815</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H11" t="n">
-        <v>81.31694793299106</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J11" t="n">
         <v>255.3912473912096</v>
@@ -5048,43 +5048,43 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3242.507220395991</v>
+        <v>3242.507220395989</v>
       </c>
       <c r="T11" t="n">
-        <v>3063.721540039937</v>
+        <v>3063.721540039935</v>
       </c>
       <c r="U11" t="n">
-        <v>2837.383130573497</v>
+        <v>2837.383130573495</v>
       </c>
       <c r="V11" t="n">
-        <v>2533.51231048965</v>
+        <v>2533.512310489648</v>
       </c>
       <c r="W11" t="n">
-        <v>2207.935722479259</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X11" t="n">
-        <v>1861.662031477903</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y11" t="n">
-        <v>1498.714766761815</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F12" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927788</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064633</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>418.3126375609359</v>
+        <v>418.3126375609361</v>
       </c>
       <c r="C13" t="n">
-        <v>326.0480053201595</v>
+        <v>276.5685218927529</v>
       </c>
       <c r="D13" t="n">
-        <v>326.0480053201595</v>
+        <v>153.643949740141</v>
       </c>
       <c r="E13" t="n">
-        <v>326.0480053201595</v>
+        <v>153.643949740141</v>
       </c>
       <c r="F13" t="n">
-        <v>326.0480053201595</v>
+        <v>153.643949740141</v>
       </c>
       <c r="G13" t="n">
-        <v>185.537235954602</v>
+        <v>153.643949740141</v>
       </c>
       <c r="H13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J13" t="n">
-        <v>138.2856940003742</v>
+        <v>138.2856940003741</v>
       </c>
       <c r="K13" t="n">
-        <v>368.9238220705058</v>
+        <v>368.9238220705057</v>
       </c>
       <c r="L13" t="n">
-        <v>712.1345656402571</v>
+        <v>712.1345656402568</v>
       </c>
       <c r="M13" t="n">
         <v>1082.942556361061</v>
@@ -5218,7 +5218,7 @@
         <v>2036.240867784764</v>
       </c>
       <c r="Q13" t="n">
-        <v>2140.502109058534</v>
+        <v>2140.502109058533</v>
       </c>
       <c r="R13" t="n">
         <v>2077.863719075785</v>
@@ -5242,7 +5242,7 @@
         <v>766.3695470152584</v>
       </c>
       <c r="Y13" t="n">
-        <v>572.7690351314519</v>
+        <v>572.769035131452</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5252,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1139.306993957415</v>
+        <v>1139.306993957416</v>
       </c>
       <c r="C14" t="n">
-        <v>797.5365442767272</v>
+        <v>797.5365442767279</v>
       </c>
       <c r="D14" t="n">
-        <v>466.4629129297004</v>
+        <v>466.4629129297012</v>
       </c>
       <c r="E14" t="n">
-        <v>107.8667275911795</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="F14" t="n">
-        <v>107.8667275911795</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="G14" t="n">
-        <v>81.31694793299103</v>
+        <v>336.9036495636925</v>
       </c>
       <c r="H14" t="n">
-        <v>81.31694793299103</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5315,13 +5315,13 @@
         <v>2533.512310489648</v>
       </c>
       <c r="W14" t="n">
-        <v>2207.935722479257</v>
+        <v>2207.935722479258</v>
       </c>
       <c r="X14" t="n">
-        <v>1861.662031477901</v>
+        <v>1861.662031477902</v>
       </c>
       <c r="Y14" t="n">
-        <v>1498.714766761813</v>
+        <v>1498.714766761814</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
@@ -5358,10 +5358,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5373,31 +5373,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
         <v>1109.759191501176</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>418.312637560936</v>
+        <v>418.3126375609374</v>
       </c>
       <c r="C16" t="n">
-        <v>276.5685218927528</v>
+        <v>276.5685218927543</v>
       </c>
       <c r="D16" t="n">
-        <v>153.6439497401407</v>
+        <v>187.2331427548528</v>
       </c>
       <c r="E16" t="n">
-        <v>153.6439497401407</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F16" t="n">
-        <v>153.6439497401407</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G16" t="n">
         <v>66.51211643218342</v>
@@ -5434,10 +5434,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>138.2856940003741</v>
+        <v>138.2856940003742</v>
       </c>
       <c r="K16" t="n">
-        <v>368.9238220705057</v>
+        <v>368.9238220705056</v>
       </c>
       <c r="L16" t="n">
         <v>712.1345656402569</v>
@@ -5449,7 +5449,7 @@
         <v>1451.001878188181</v>
       </c>
       <c r="O16" t="n">
-        <v>1776.982422229849</v>
+        <v>1776.98242222985</v>
       </c>
       <c r="P16" t="n">
         <v>2036.240867784764</v>
@@ -5458,28 +5458,28 @@
         <v>2140.502109058534</v>
       </c>
       <c r="R16" t="n">
-        <v>2077.863719075785</v>
+        <v>2077.863719075786</v>
       </c>
       <c r="S16" t="n">
         <v>1913.369902162336</v>
       </c>
       <c r="T16" t="n">
-        <v>1718.795353991585</v>
+        <v>1718.795353991586</v>
       </c>
       <c r="U16" t="n">
-        <v>1456.884554376952</v>
+        <v>1456.884554376953</v>
       </c>
       <c r="V16" t="n">
-        <v>1229.392133430789</v>
+        <v>1229.39213343079</v>
       </c>
       <c r="W16" t="n">
-        <v>967.1670306535522</v>
+        <v>967.1670306535534</v>
       </c>
       <c r="X16" t="n">
-        <v>766.3695470152585</v>
+        <v>766.3695470152597</v>
       </c>
       <c r="Y16" t="n">
-        <v>572.769035131452</v>
+        <v>572.7690351314534</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1518.904057542001</v>
+        <v>1855.320338666651</v>
       </c>
       <c r="C17" t="n">
-        <v>1224.583240809387</v>
+        <v>1560.999521934037</v>
       </c>
       <c r="D17" t="n">
-        <v>940.959242410433</v>
+        <v>1277.375523535083</v>
       </c>
       <c r="E17" t="n">
-        <v>629.8847665628259</v>
+        <v>966.2289711446363</v>
       </c>
       <c r="F17" t="n">
-        <v>629.8847665628259</v>
+        <v>629.8847665628257</v>
       </c>
       <c r="G17" t="n">
-        <v>289.4540166156193</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
         <v>1573.776739001388</v>
@@ -5528,16 +5528,16 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q17" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
         <v>3289.956853344062</v>
@@ -5546,19 +5546,19 @@
         <v>3158.620805936081</v>
       </c>
       <c r="U17" t="n">
-        <v>2979.732029417715</v>
+        <v>2979.732029417714</v>
       </c>
       <c r="V17" t="n">
-        <v>2723.310842281941</v>
+        <v>2747.768983550266</v>
       </c>
       <c r="W17" t="n">
-        <v>2445.183887219624</v>
+        <v>2469.642028487949</v>
       </c>
       <c r="X17" t="n">
-        <v>2146.359829166341</v>
+        <v>2170.817970434666</v>
       </c>
       <c r="Y17" t="n">
-        <v>1830.862197398326</v>
+        <v>1855.320338666651</v>
       </c>
     </row>
     <row r="18">
@@ -5568,43 +5568,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
         <v>2096.912393410638</v>
@@ -5625,7 +5625,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5634,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="19">
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>569.1217789872289</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C19" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D19" t="n">
-        <v>399.3523570625802</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E19" t="n">
-        <v>326.080963687984</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F19" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G19" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H19" t="n">
-        <v>89.19609340604114</v>
+        <v>89.19609340604102</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N19" t="n">
         <v>1317.747152581905</v>
@@ -5692,31 +5692,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q19" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1912.105791053817</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S19" t="n">
-        <v>1795.06160708844</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T19" t="n">
-        <v>1647.936691865763</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U19" t="n">
-        <v>1433.475525199204</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V19" t="n">
-        <v>1253.432737201114</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W19" t="n">
-        <v>1038.65726737195</v>
+        <v>975.6272732356242</v>
       </c>
       <c r="X19" t="n">
-        <v>822.2794225454049</v>
+        <v>822.2794225454039</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.1285436096717</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>1224.583240809387</v>
       </c>
       <c r="D20" t="n">
-        <v>940.959242410433</v>
+        <v>940.9592424104341</v>
       </c>
       <c r="E20" t="n">
-        <v>629.8126900199862</v>
+        <v>629.812690019987</v>
       </c>
       <c r="F20" t="n">
-        <v>629.8126900199862</v>
+        <v>293.4684854381765</v>
       </c>
       <c r="G20" t="n">
-        <v>289.3819400727796</v>
+        <v>289.4540166156191</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L20" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
         <v>2120.555556060171</v>
@@ -5768,19 +5768,19 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q20" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
         <v>3289.956853344062</v>
       </c>
       <c r="T20" t="n">
-        <v>3158.620805936082</v>
+        <v>3158.620805936081</v>
       </c>
       <c r="U20" t="n">
         <v>2979.732029417715</v>
@@ -5792,10 +5792,10 @@
         <v>2445.183887219624</v>
       </c>
       <c r="X20" t="n">
-        <v>2146.359829166341</v>
+        <v>2146.359829166342</v>
       </c>
       <c r="Y20" t="n">
-        <v>1830.862197398326</v>
+        <v>1830.862197398327</v>
       </c>
     </row>
     <row r="21">
@@ -5805,64 +5805,64 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F21" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228009</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q21" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T21" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5871,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>569.1217789872288</v>
+        <v>569.1217789872281</v>
       </c>
       <c r="C22" t="n">
-        <v>474.8272962671189</v>
+        <v>474.8272962671183</v>
       </c>
       <c r="D22" t="n">
-        <v>399.3523570625801</v>
+        <v>399.3523570625796</v>
       </c>
       <c r="E22" t="n">
-        <v>326.0809636879839</v>
+        <v>326.0809636879835</v>
       </c>
       <c r="F22" t="n">
-        <v>253.8327163978705</v>
+        <v>253.8327163978702</v>
       </c>
       <c r="G22" t="n">
-        <v>160.7715799803864</v>
+        <v>160.7715799803862</v>
       </c>
       <c r="H22" t="n">
-        <v>89.19609340604113</v>
+        <v>89.19609340604102</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5932,28 +5932,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R22" t="n">
-        <v>1849.075796917492</v>
+        <v>1912.105791053818</v>
       </c>
       <c r="S22" t="n">
-        <v>1732.031612952115</v>
+        <v>1795.061607088441</v>
       </c>
       <c r="T22" t="n">
-        <v>1584.906697729438</v>
+        <v>1647.936691865764</v>
       </c>
       <c r="U22" t="n">
-        <v>1370.445531062879</v>
+        <v>1433.475525199205</v>
       </c>
       <c r="V22" t="n">
-        <v>1190.402743064789</v>
+        <v>1253.432737201115</v>
       </c>
       <c r="W22" t="n">
-        <v>975.6272732356252</v>
+        <v>975.6272732356242</v>
       </c>
       <c r="X22" t="n">
-        <v>822.2794225454048</v>
+        <v>822.2794225454039</v>
       </c>
       <c r="Y22" t="n">
-        <v>676.1285436096716</v>
+        <v>676.1285436096708</v>
       </c>
     </row>
     <row r="23">
@@ -5972,64 +5972,64 @@
         <v>1284.241161925383</v>
       </c>
       <c r="E23" t="n">
-        <v>973.0946095349354</v>
+        <v>973.0946095349357</v>
       </c>
       <c r="F23" t="n">
-        <v>636.7504049531249</v>
+        <v>636.7504049531251</v>
       </c>
       <c r="G23" t="n">
-        <v>296.3196550059183</v>
+        <v>296.3196550059182</v>
       </c>
       <c r="H23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="I23" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J23" t="n">
-        <v>262.2568857815079</v>
+        <v>262.2568857815078</v>
       </c>
       <c r="K23" t="n">
-        <v>596.0762594713544</v>
+        <v>596.0762594713543</v>
       </c>
       <c r="L23" t="n">
         <v>1047.110472719763</v>
       </c>
       <c r="M23" t="n">
-        <v>1580.642377391688</v>
+        <v>1917.058658516337</v>
       </c>
       <c r="N23" t="n">
-        <v>2127.42119445047</v>
+        <v>2463.837475575119</v>
       </c>
       <c r="O23" t="n">
-        <v>2691.5588500269</v>
+        <v>2966.809946454456</v>
       </c>
       <c r="P23" t="n">
-        <v>3086.333216384078</v>
+        <v>3361.584312811634</v>
       </c>
       <c r="Q23" t="n">
-        <v>3544.811418893066</v>
+        <v>3609.870674567317</v>
       </c>
       <c r="R23" t="n">
-        <v>3668.887741124121</v>
+        <v>3668.887741124119</v>
       </c>
       <c r="S23" t="n">
-        <v>3633.238772859013</v>
+        <v>3633.238772859012</v>
       </c>
       <c r="T23" t="n">
-        <v>3501.902725451032</v>
+        <v>3501.902725451031</v>
       </c>
       <c r="U23" t="n">
-        <v>3323.013948932665</v>
+        <v>3323.013948932663</v>
       </c>
       <c r="V23" t="n">
-        <v>3066.592761796891</v>
+        <v>3066.59276179689</v>
       </c>
       <c r="W23" t="n">
-        <v>2788.465806734574</v>
+        <v>2788.465806734573</v>
       </c>
       <c r="X23" t="n">
-        <v>2489.641748681291</v>
+        <v>2489.64174868129</v>
       </c>
       <c r="Y23" t="n">
         <v>2174.144116913276</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>948.4094928714077</v>
+        <v>948.4094928714073</v>
       </c>
       <c r="C24" t="n">
-        <v>773.9564635902807</v>
+        <v>773.9564635902804</v>
       </c>
       <c r="D24" t="n">
-        <v>625.0220539290294</v>
+        <v>625.0220539290291</v>
       </c>
       <c r="E24" t="n">
-        <v>465.7845989235739</v>
+        <v>465.7845989235736</v>
       </c>
       <c r="F24" t="n">
-        <v>319.2500409504588</v>
+        <v>319.2500409504586</v>
       </c>
       <c r="G24" t="n">
-        <v>182.8869407830769</v>
+        <v>182.8869407830767</v>
       </c>
       <c r="H24" t="n">
-        <v>92.38504642094446</v>
+        <v>92.38504642094421</v>
       </c>
       <c r="I24" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J24" t="n">
-        <v>167.0550243130995</v>
+        <v>167.0550243130997</v>
       </c>
       <c r="K24" t="n">
-        <v>405.3192232934467</v>
+        <v>405.3192232934468</v>
       </c>
       <c r="L24" t="n">
-        <v>772.017383606112</v>
+        <v>772.0173836061122</v>
       </c>
       <c r="M24" t="n">
         <v>1219.293708828428</v>
@@ -6099,7 +6099,7 @@
         <v>2249.693940687491</v>
       </c>
       <c r="U24" t="n">
-        <v>2021.626093821907</v>
+        <v>2021.626093821906</v>
       </c>
       <c r="V24" t="n">
         <v>1786.473985590164</v>
@@ -6108,10 +6108,10 @@
         <v>1532.236628861962</v>
       </c>
       <c r="X24" t="n">
-        <v>1324.38512865643</v>
+        <v>1324.385128656429</v>
       </c>
       <c r="Y24" t="n">
-        <v>1116.624829891476</v>
+        <v>1116.624829891475</v>
       </c>
     </row>
     <row r="25">
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>575.9874173775278</v>
+        <v>575.9874173775271</v>
       </c>
       <c r="C25" t="n">
-        <v>481.6929346574178</v>
+        <v>481.6929346574173</v>
       </c>
       <c r="D25" t="n">
-        <v>406.2179954528791</v>
+        <v>406.2179954528785</v>
       </c>
       <c r="E25" t="n">
-        <v>332.9466020782829</v>
+        <v>332.9466020782825</v>
       </c>
       <c r="F25" t="n">
-        <v>260.6983547881695</v>
+        <v>260.6983547881692</v>
       </c>
       <c r="G25" t="n">
-        <v>167.6372183706854</v>
+        <v>167.6372183706852</v>
       </c>
       <c r="H25" t="n">
-        <v>96.06173179634013</v>
+        <v>96.06173179634</v>
       </c>
       <c r="I25" t="n">
-        <v>73.37775482248242</v>
+        <v>73.37775482248239</v>
       </c>
       <c r="J25" t="n">
         <v>118.500387269418</v>
       </c>
       <c r="K25" t="n">
-        <v>322.4875702182944</v>
+        <v>322.4875702182943</v>
       </c>
       <c r="L25" t="n">
-        <v>639.0473686667905</v>
+        <v>639.0473686667904</v>
       </c>
       <c r="M25" t="n">
         <v>983.2044142663394</v>
@@ -6178,19 +6178,19 @@
         <v>1654.802330256063</v>
       </c>
       <c r="U25" t="n">
-        <v>1377.311169453178</v>
+        <v>1440.341163589504</v>
       </c>
       <c r="V25" t="n">
-        <v>1197.268381455088</v>
+        <v>1197.268381455087</v>
       </c>
       <c r="W25" t="n">
-        <v>982.4929116259242</v>
+        <v>982.4929116259232</v>
       </c>
       <c r="X25" t="n">
-        <v>829.1450609357038</v>
+        <v>829.1450609357029</v>
       </c>
       <c r="Y25" t="n">
-        <v>682.9941819999706</v>
+        <v>682.9941819999698</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467787</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557147</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455613</v>
       </c>
       <c r="L26" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1588.411539465894</v>
+        <v>1588.411539465895</v>
       </c>
       <c r="N26" t="n">
-        <v>2135.190356524677</v>
+        <v>2568.163811692541</v>
       </c>
       <c r="O26" t="n">
-        <v>2761.436232647469</v>
+        <v>3071.136282571879</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R26" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.89585086383</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C27" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D27" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E27" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F27" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G27" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572842</v>
       </c>
       <c r="H27" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951516</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873066</v>
+        <v>174.8241863873063</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676538</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803191</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502697999</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899663</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257039</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
         <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L28" t="n">
-        <v>786.3326864982164</v>
+        <v>786.3326864982175</v>
       </c>
       <c r="M28" t="n">
         <v>1176.995117350172</v>
@@ -6403,13 +6403,13 @@
         <v>2189.856749167329</v>
       </c>
       <c r="Q28" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R28" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S28" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T28" t="n">
         <v>1953.038372570351</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689499</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
         <v>1711.594658697161</v>
@@ -6449,49 +6449,49 @@
         <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467786</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K29" t="n">
-        <v>603.8454215455611</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1543.189242259776</v>
       </c>
       <c r="M29" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N29" t="n">
-        <v>2135.190356524677</v>
+        <v>2623.499963990483</v>
       </c>
       <c r="O29" t="n">
-        <v>2761.436232647469</v>
+        <v>3126.47243486982</v>
       </c>
       <c r="P29" t="n">
-        <v>3474.791320094415</v>
+        <v>3521.246801226998</v>
       </c>
       <c r="Q29" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863831</v>
@@ -6503,7 +6503,7 @@
         <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833286</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
         <v>2372.257749805548</v>
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456147</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644877</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
-        <v>632.7912160032365</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.553760997781</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
-        <v>327.019203024666</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572846</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
-        <v>100.1542084951516</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873068</v>
+        <v>174.8241863873065</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676536</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6555,25 +6555,25 @@
         <v>1700.58591445709</v>
       </c>
       <c r="O30" t="n">
-        <v>2111.547193875145</v>
+        <v>2111.547193875144</v>
       </c>
       <c r="P30" t="n">
-        <v>2422.046785351248</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q30" t="n">
         <v>2579.688342997847</v>
       </c>
       <c r="R30" t="n">
-        <v>2579.543989590363</v>
+        <v>2579.543989590362</v>
       </c>
       <c r="S30" t="n">
-        <v>2450.106103083843</v>
+        <v>2450.106103083842</v>
       </c>
       <c r="T30" t="n">
         <v>2257.463102761698</v>
       </c>
       <c r="U30" t="n">
-        <v>2029.395255896114</v>
+        <v>2029.395255896113</v>
       </c>
       <c r="V30" t="n">
         <v>1794.243147664371</v>
@@ -6582,10 +6582,10 @@
         <v>1540.005790936169</v>
       </c>
       <c r="X30" t="n">
-        <v>1332.154290730637</v>
+        <v>1332.154290730636</v>
       </c>
       <c r="Y30" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257042</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913844</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415473</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302707</v>
+        <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
         <v>172.7749345960314</v>
@@ -6625,10 +6625,10 @@
         <v>423.2675027973144</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982173</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
@@ -6704,46 +6704,46 @@
         <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1076.411957014865</v>
       </c>
       <c r="M32" t="n">
-        <v>1588.411539465894</v>
+        <v>1609.94386168679</v>
       </c>
       <c r="N32" t="n">
-        <v>2135.190356524677</v>
+        <v>2156.722678745572</v>
       </c>
       <c r="O32" t="n">
-        <v>2761.436232647469</v>
+        <v>3036.687329075027</v>
       </c>
       <c r="P32" t="n">
-        <v>3474.791320094415</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3933.269522603403</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R32" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456144</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644874</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032362</v>
+        <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977807</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246657</v>
+        <v>327.0192030246656</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572838</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951513</v>
+        <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
         <v>174.8241863873065</v>
@@ -6822,7 +6822,7 @@
         <v>1332.154290730636</v>
       </c>
       <c r="Y33" t="n">
-        <v>1124.393991965683</v>
+        <v>1124.393991965682</v>
       </c>
     </row>
     <row r="34">
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D34" t="n">
         <v>549.9474938257041</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F34" t="n">
         <v>350.0437186415472</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H34" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960315</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973145</v>
       </c>
       <c r="L34" t="n">
-        <v>786.3326864982171</v>
+        <v>786.3326864982173</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350173</v>
@@ -6886,7 +6886,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,22 +6920,22 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464969</v>
       </c>
       <c r="F35" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
         <v>589.2106210810562</v>
@@ -6944,19 +6944,19 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6977,7 +6977,7 @@
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -6990,31 +6990,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G36" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
         <v>398.4535849031479</v>
@@ -7047,7 +7047,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U36" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
         <v>1779.608347199865</v>
@@ -7056,10 +7056,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X36" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y36" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>453.733644122599</v>
+        <v>500.9308303909357</v>
       </c>
       <c r="C37" t="n">
-        <v>383.4688957685355</v>
+        <v>430.6660820368722</v>
       </c>
       <c r="D37" t="n">
-        <v>332.0236909300432</v>
+        <v>379.2208771983799</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159869</v>
+        <v>329.9792181898302</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>281.7607052657632</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404823</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
         <v>111.634748879119</v>
@@ -7117,28 +7117,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1744.449641246691</v>
+        <v>1834.280098489163</v>
       </c>
       <c r="T37" t="n">
-        <v>1621.35446039006</v>
+        <v>1668.551646658397</v>
       </c>
       <c r="U37" t="n">
-        <v>1430.923028089547</v>
+        <v>1379.44877978404</v>
       </c>
       <c r="V37" t="n">
-        <v>1274.909974457503</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W37" t="n">
-        <v>985.4928044205428</v>
+        <v>835.3471215411927</v>
       </c>
       <c r="X37" t="n">
-        <v>757.5032535225255</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y37" t="n">
-        <v>536.7106743789953</v>
+        <v>583.907860647332</v>
       </c>
     </row>
     <row r="38">
@@ -7157,49 +7157,49 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464972</v>
+        <v>894.1397680464975</v>
       </c>
       <c r="F38" t="n">
-        <v>581.825297830733</v>
+        <v>581.8252978307332</v>
       </c>
       <c r="G38" t="n">
-        <v>265.4242822495729</v>
+        <v>265.4242822495728</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710109</v>
       </c>
       <c r="T38" t="n">
         <v>3206.680274668175</v>
@@ -7208,13 +7208,13 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746127</v>
+        <v>2819.429779746128</v>
       </c>
       <c r="W38" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X38" t="n">
-        <v>2290.53823536262</v>
+        <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
         <v>1999.070337960652</v>
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="40">
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>453.7336441225988</v>
+        <v>402.2593958170923</v>
       </c>
       <c r="C40" t="n">
-        <v>383.4688957685353</v>
+        <v>331.9946474630288</v>
       </c>
       <c r="D40" t="n">
-        <v>332.023690930043</v>
+        <v>280.5494426245365</v>
       </c>
       <c r="E40" t="n">
-        <v>282.7820319214932</v>
+        <v>231.3077836159868</v>
       </c>
       <c r="F40" t="n">
-        <v>234.5635189974263</v>
+        <v>183.0892706919199</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>114.0578686404822</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
@@ -7354,28 +7354,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U40" t="n">
-        <v>1233.58015894186</v>
+        <v>1323.410616184332</v>
       </c>
       <c r="V40" t="n">
-        <v>978.8956707359731</v>
+        <v>1124.764291578153</v>
       </c>
       <c r="W40" t="n">
-        <v>788.1499352728558</v>
+        <v>934.0185561150361</v>
       </c>
       <c r="X40" t="n">
-        <v>658.8318189486819</v>
+        <v>706.0290052170187</v>
       </c>
       <c r="Y40" t="n">
-        <v>536.7106743789951</v>
+        <v>485.2364260734886</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C41" t="n">
         <v>1440.850850103805</v>
@@ -7394,10 +7394,10 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E41" t="n">
-        <v>894.1397680464974</v>
+        <v>894.1397680464966</v>
       </c>
       <c r="F41" t="n">
-        <v>581.8252978307331</v>
+        <v>581.8252978307323</v>
       </c>
       <c r="G41" t="n">
         <v>265.4242822495729</v>
@@ -7409,22 +7409,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
         <v>3018.302393296687</v>
@@ -7445,13 +7445,13 @@
         <v>3051.821232515855</v>
       </c>
       <c r="V41" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W41" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X41" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y41" t="n">
         <v>1999.070337960652</v>
@@ -7488,13 +7488,13 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>599.6022649647795</v>
+        <v>444.8926667912272</v>
       </c>
       <c r="C43" t="n">
-        <v>430.6660820368726</v>
+        <v>374.6279184371636</v>
       </c>
       <c r="D43" t="n">
-        <v>280.5494426245369</v>
+        <v>323.1827135986712</v>
       </c>
       <c r="E43" t="n">
-        <v>231.3077836159871</v>
+        <v>273.9410545901214</v>
       </c>
       <c r="F43" t="n">
-        <v>183.08927069192</v>
+        <v>225.7225416660543</v>
       </c>
       <c r="G43" t="n">
-        <v>114.0578686404823</v>
+        <v>156.6911396146166</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>109.1453874063177</v>
       </c>
       <c r="I43" t="n">
         <v>66.51211643218343</v>
@@ -7591,28 +7591,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R43" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S43" t="n">
-        <v>1645.778206672847</v>
+        <v>1834.280098489162</v>
       </c>
       <c r="T43" t="n">
-        <v>1522.683025816217</v>
+        <v>1711.184917632532</v>
       </c>
       <c r="U43" t="n">
-        <v>1280.777345210197</v>
+        <v>1520.753485332019</v>
       </c>
       <c r="V43" t="n">
-        <v>1124.764291578154</v>
+        <v>1266.068997126132</v>
       </c>
       <c r="W43" t="n">
-        <v>934.0185561150365</v>
+        <v>976.6518270891711</v>
       </c>
       <c r="X43" t="n">
-        <v>804.7004397908626</v>
+        <v>748.6622761911538</v>
       </c>
       <c r="Y43" t="n">
-        <v>682.5792952211758</v>
+        <v>527.8696970476236</v>
       </c>
     </row>
     <row r="44">
@@ -7631,43 +7631,43 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E44" t="n">
-        <v>894.139768046497</v>
+        <v>894.1397680464968</v>
       </c>
       <c r="F44" t="n">
         <v>581.8252978307328</v>
       </c>
       <c r="G44" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P44" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q44" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R44" t="n">
         <v>3325.605821609171</v>
@@ -7716,19 +7716,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L45" t="n">
         <v>765.1517452158131</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>402.2593958170923</v>
+        <v>402.2593958170925</v>
       </c>
       <c r="C46" t="n">
-        <v>331.9946474630288</v>
+        <v>331.994647463029</v>
       </c>
       <c r="D46" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245367</v>
       </c>
       <c r="E46" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159869</v>
       </c>
       <c r="F46" t="n">
         <v>183.0892706919199</v>
       </c>
       <c r="G46" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J46" t="n">
         <v>111.634748879119</v>
@@ -7834,22 +7834,22 @@
         <v>1834.280098489163</v>
       </c>
       <c r="T46" t="n">
-        <v>1711.184917632532</v>
+        <v>1612.513483058689</v>
       </c>
       <c r="U46" t="n">
-        <v>1422.082050758176</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V46" t="n">
-        <v>1167.397562552289</v>
+        <v>1167.397562552288</v>
       </c>
       <c r="W46" t="n">
-        <v>877.980392515328</v>
+        <v>976.6518270891712</v>
       </c>
       <c r="X46" t="n">
-        <v>706.0290052170187</v>
+        <v>804.7004397908623</v>
       </c>
       <c r="Y46" t="n">
-        <v>485.2364260734886</v>
+        <v>583.9078606473322</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>157.2353108430636</v>
+        <v>157.2353108430627</v>
       </c>
       <c r="K8" t="n">
-        <v>184.4039433729016</v>
+        <v>184.4039433729002</v>
       </c>
       <c r="L8" t="n">
-        <v>191.4948909389614</v>
+        <v>191.4948909389597</v>
       </c>
       <c r="M8" t="n">
-        <v>181.0856325333078</v>
+        <v>181.0856325333059</v>
       </c>
       <c r="N8" t="n">
-        <v>179.3553748830252</v>
+        <v>179.3553748830232</v>
       </c>
       <c r="O8" t="n">
-        <v>182.8301554384001</v>
+        <v>182.8301554383982</v>
       </c>
       <c r="P8" t="n">
-        <v>190.8908035586594</v>
+        <v>190.8908035586578</v>
       </c>
       <c r="Q8" t="n">
-        <v>192.0103836266131</v>
+        <v>192.0103836266119</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>112.6562001875977</v>
+        <v>112.6562001875972</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6031223372538</v>
+        <v>113.6031223372529</v>
       </c>
       <c r="L9" t="n">
-        <v>105.9629718672281</v>
+        <v>105.9629718672268</v>
       </c>
       <c r="M9" t="n">
-        <v>104.1013981253601</v>
+        <v>104.1013981253587</v>
       </c>
       <c r="N9" t="n">
-        <v>92.30246558677742</v>
+        <v>92.3024655867759</v>
       </c>
       <c r="O9" t="n">
-        <v>106.8829608359744</v>
+        <v>106.882960835973</v>
       </c>
       <c r="P9" t="n">
-        <v>105.311348779833</v>
+        <v>105.3113487798319</v>
       </c>
       <c r="Q9" t="n">
-        <v>120.8212784615462</v>
+        <v>120.8212784615454</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>116.1755252564662</v>
+        <v>116.1755252564655</v>
       </c>
       <c r="M10" t="n">
-        <v>119.1996074085232</v>
+        <v>119.1996074085224</v>
       </c>
       <c r="N10" t="n">
-        <v>108.4284123140782</v>
+        <v>108.4284123140774</v>
       </c>
       <c r="O10" t="n">
-        <v>120.6694600530928</v>
+        <v>120.6694600530922</v>
       </c>
       <c r="P10" t="n">
-        <v>122.5080856662708</v>
+        <v>122.5080856662702</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -8763,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9416,7 +9416,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>339.8144253784337</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>61.78301484554811</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9884,19 +9884,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>287.0017854473896</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10124,13 +10124,13 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>124.5185911550058</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>165.3902622431539</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10352,7 +10352,7 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>21.74982042514705</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10361,16 +10361,16 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>124.5185911550058</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.02219619719372</v>
+        <v>15.02219619719371</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23270,13 +23270,13 @@
         <v>379.955899154585</v>
       </c>
       <c r="G11" t="n">
-        <v>384.0015790663271</v>
+        <v>343.0605140189202</v>
       </c>
       <c r="H11" t="n">
-        <v>241.4033359385855</v>
+        <v>267.687617800194</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>14.65678318579953</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>48.98468859313287</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.695326431086</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>119.5138160594428</v>
+        <v>119.5138160594427</v>
       </c>
       <c r="F13" t="n">
         <v>118.5009014358048</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.1056616719018</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>31.57435335231637</v>
       </c>
       <c r="I13" t="n">
-        <v>69.43227382271169</v>
+        <v>69.43227382271166</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23501,19 +23501,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>226.7465527527869</v>
       </c>
       <c r="F14" t="n">
-        <v>379.955899154585</v>
+        <v>379.9558991545849</v>
       </c>
       <c r="G14" t="n">
-        <v>357.7172972047205</v>
+        <v>384.0015790663269</v>
       </c>
       <c r="H14" t="n">
-        <v>267.6876178001941</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>14.65678318579944</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.2533010845633</v>
       </c>
       <c r="E16" t="n">
-        <v>119.5138160594427</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>118.5009014358048</v>
+        <v>118.5009014358047</v>
       </c>
       <c r="G16" t="n">
-        <v>52.84514669702469</v>
+        <v>139.1056616719017</v>
       </c>
       <c r="H16" t="n">
-        <v>117.8348683271944</v>
+        <v>117.8348683271942</v>
       </c>
       <c r="I16" t="n">
-        <v>69.43227382271166</v>
+        <v>69.43227382271158</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>308.8385584577615</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23738,10 +23738,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.07135577741178167</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>332.9807625359925</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>24.21355985564162</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23978,13 +23978,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>332.9807625359925</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>333.0521183134031</v>
       </c>
       <c r="H20" t="n">
-        <v>0.07135577741127008</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1518944.818571671</v>
+        <v>1518944.81857167</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1288283.93691894</v>
+        <v>1288283.936918941</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1402017.872516673</v>
+        <v>1402017.872516674</v>
       </c>
     </row>
     <row r="8">
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>59764.55367552151</v>
+        <v>59764.55367552385</v>
       </c>
       <c r="E3" t="n">
-        <v>1089238.972163633</v>
+        <v>1089238.972163631</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-11</v>
       </c>
       <c r="G3" t="n">
         <v>37580.10929487403</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>22821.46782983379</v>
+        <v>22821.46782983369</v>
       </c>
       <c r="J3" t="n">
-        <v>25409.43302179686</v>
+        <v>25409.43302179695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37580.10929487403</v>
+        <v>37580.10929487404</v>
       </c>
       <c r="M3" t="n">
-        <v>202168.0999927244</v>
+        <v>202168.0999927243</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>5.684341886080801e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26421,28 +26421,28 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>426120.6833475043</v>
+        <v>426120.6833475035</v>
       </c>
       <c r="E4" t="n">
-        <v>39414.2179786374</v>
+        <v>39414.21797863749</v>
       </c>
       <c r="F4" t="n">
-        <v>39414.21797863743</v>
+        <v>39414.21797863756</v>
       </c>
       <c r="G4" t="n">
-        <v>76442.37834007965</v>
+        <v>76442.37834007971</v>
       </c>
       <c r="H4" t="n">
-        <v>76442.37834007964</v>
+        <v>76442.37834007968</v>
       </c>
       <c r="I4" t="n">
         <v>89331.33560602847</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936337</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936334</v>
+        <v>86909.55729936331</v>
       </c>
       <c r="L4" t="n">
         <v>86909.55729936334</v>
@@ -26451,10 +26451,10 @@
         <v>91573.95495316941</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316941</v>
+        <v>91573.95495316939</v>
       </c>
       <c r="O4" t="n">
-        <v>91573.95495316935</v>
+        <v>91573.95495316933</v>
       </c>
       <c r="P4" t="n">
         <v>91573.95495316941</v>
@@ -26473,10 +26473,10 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>35148.90543186633</v>
+        <v>35148.90543186638</v>
       </c>
       <c r="E5" t="n">
-        <v>76569.49036482644</v>
+        <v>76569.49036482643</v>
       </c>
       <c r="F5" t="n">
         <v>76569.49036482643</v>
@@ -26488,7 +26488,7 @@
         <v>80518.64312521488</v>
       </c>
       <c r="I5" t="n">
-        <v>85736.52830184213</v>
+        <v>85736.5283018421</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480612</v>
@@ -26509,7 +26509,7 @@
         <v>82518.59730624985</v>
       </c>
       <c r="P5" t="n">
-        <v>82518.59730624987</v>
+        <v>82518.59730624985</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="C6" t="n">
-        <v>-480652.2202723928</v>
+        <v>-480656.633850261</v>
       </c>
       <c r="D6" t="n">
-        <v>-521034.1424548922</v>
+        <v>-521038.5002050395</v>
       </c>
       <c r="E6" t="n">
-        <v>-1205222.680507097</v>
+        <v>-1205451.434929493</v>
       </c>
       <c r="F6" t="n">
-        <v>-115983.7083434638</v>
+        <v>-116212.4627658623</v>
       </c>
       <c r="G6" t="n">
-        <v>-194541.1307601686</v>
+        <v>-194607.408131713</v>
       </c>
       <c r="H6" t="n">
-        <v>-156961.0214652945</v>
+        <v>-157027.2988368389</v>
       </c>
       <c r="I6" t="n">
-        <v>-197889.3317377044</v>
+        <v>-197889.3317377043</v>
       </c>
       <c r="J6" t="n">
         <v>-201696.9319959664</v>
       </c>
       <c r="K6" t="n">
-        <v>-176287.4989741695</v>
+        <v>-176287.4989741694</v>
       </c>
       <c r="L6" t="n">
         <v>-213867.6082690435</v>
       </c>
       <c r="M6" t="n">
-        <v>-376260.6522521437</v>
+        <v>-376260.6522521436</v>
       </c>
       <c r="N6" t="n">
-        <v>-174092.5522594192</v>
+        <v>-174092.5522594193</v>
       </c>
       <c r="O6" t="n">
         <v>-174092.5522594191</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F2" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="G2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I2" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="O2" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="P2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790493</v>
+        <v>69.78465283790766</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26759,7 +26759,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="J3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="K3" t="n">
         <v>1089.776700593298</v>
@@ -26796,40 +26796,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>917.2219352810303</v>
+        <v>917.2219352810298</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="O4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
     </row>
   </sheetData>
@@ -26914,10 +26914,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="F2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="G2" t="n">
         <v>46.97513661859254</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M2" t="n">
         <v>50.70958360951241</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>69.78465283790493</v>
+        <v>69.78465283790766</v>
       </c>
       <c r="E3" t="n">
-        <v>1019.992047755393</v>
+        <v>1019.99204775539</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>85.82047987873761</v>
+        <v>85.82047987873727</v>
       </c>
       <c r="J4" t="n">
-        <v>97.11452592758428</v>
+        <v>97.11452592758462</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959714</v>
+        <v>648.466449595971</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,10 +27151,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712645</v>
       </c>
       <c r="K2" t="n">
-        <v>3.552713678800501e-14</v>
+        <v>7.105427357601002e-14</v>
       </c>
       <c r="L2" t="n">
         <v>46.97513661859254</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>336.6017083434006</v>
+        <v>336.6017083434004</v>
       </c>
       <c r="I8" t="n">
-        <v>199.6603204104729</v>
+        <v>199.6603204104725</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>132.2465643780178</v>
+        <v>132.2465643780172</v>
       </c>
       <c r="S8" t="n">
-        <v>202.6272343036574</v>
+        <v>202.6272343036571</v>
       </c>
       <c r="T8" t="n">
         <v>221.8677799448432</v>
@@ -27950,7 +27950,7 @@
         <v>110.7857668256562</v>
       </c>
       <c r="I9" t="n">
-        <v>84.22861846672117</v>
+        <v>84.22861846672097</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>90.83829126987537</v>
+        <v>90.83829126987501</v>
       </c>
       <c r="S9" t="n">
-        <v>168.8950767192291</v>
+        <v>168.895076719229</v>
       </c>
       <c r="T9" t="n">
         <v>199.5597089216326</v>
@@ -28026,16 +28026,16 @@
         <v>167.8651381812101</v>
       </c>
       <c r="H10" t="n">
-        <v>161.1083300406286</v>
+        <v>161.1083300406285</v>
       </c>
       <c r="I10" t="n">
-        <v>151.6660875241798</v>
+        <v>151.6660875241796</v>
       </c>
       <c r="J10" t="n">
-        <v>84.46220888519103</v>
+        <v>84.46220888519068</v>
       </c>
       <c r="K10" t="n">
-        <v>7.649035050990644</v>
+        <v>7.649035050990072</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>75.62456067317075</v>
+        <v>75.62456067317032</v>
       </c>
       <c r="R10" t="n">
-        <v>171.6351144437879</v>
+        <v>171.6351144437877</v>
       </c>
       <c r="S10" t="n">
-        <v>221.8235295207384</v>
+        <v>221.8235295207383</v>
       </c>
       <c r="T10" t="n">
-        <v>227.407904398219</v>
+        <v>227.4079043982189</v>
       </c>
       <c r="U10" t="n">
         <v>286.3121652922773</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y11" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="C13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="D13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="E13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="F13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="G13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="H13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="I13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="J13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="K13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="L13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="M13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="N13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="O13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="P13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="R13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="S13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="T13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="U13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="V13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="W13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="X13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
       <c r="Y13" t="n">
-        <v>26.92014658712639</v>
+        <v>26.92014658712646</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="C14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="D14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="E14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="F14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="G14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="H14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="I14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="T14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="U14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="V14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="W14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="X14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="Y14" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="C16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="D16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="E16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="F16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="G16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="H16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="I16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="J16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="K16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="L16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="M16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="N16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="O16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="P16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="Q16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="R16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="S16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="T16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="U16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="V16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="W16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="X16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
       <c r="Y16" t="n">
-        <v>26.92014658712642</v>
+        <v>26.92014658712653</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y17" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28767,28 +28767,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W19" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="X19" t="n">
-        <v>11.49558901075761</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y19" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y20" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -29004,28 +29004,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.49558901075653</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W22" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075511</v>
       </c>
       <c r="X22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y22" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292595</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="W23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y23" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="C25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="D25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="E25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="F25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="G25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="H25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="I25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29241,28 +29241,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="S25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="T25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="U25" t="n">
-        <v>11.49558901075682</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="V25" t="n">
-        <v>73.89528320571897</v>
+        <v>11.49558901075505</v>
       </c>
       <c r="W25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="X25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
       <c r="Y25" t="n">
-        <v>73.89528320571897</v>
+        <v>73.89528320571907</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859176</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859085</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859261</v>
       </c>
     </row>
     <row r="29">
@@ -29697,7 +29697,7 @@
         <v>46.97513661859255</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859227</v>
       </c>
       <c r="M31" t="n">
         <v>46.97513661859255</v>
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292595</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.9751366185925</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292595</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="36">
@@ -30141,25 +30141,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E37" t="n">
-        <v>46.72521440565345</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>96.35242040983809</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T37" t="n">
-        <v>97.68472022810495</v>
+        <v>55.47778196371104</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
     </row>
     <row r="39">
@@ -30378,25 +30378,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="G40" t="n">
-        <v>46.72521440565367</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>55.47778196371107</v>
       </c>
       <c r="W40" t="n">
-        <v>97.68472022810495</v>
+        <v>97.68472022810496</v>
       </c>
       <c r="X40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810495</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="W41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="X41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="Y41" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="E43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="F43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="G43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="H43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>54.14548214544519</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="T43" t="n">
-        <v>97.68472022810488</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="U43" t="n">
-        <v>46.72521440565396</v>
+        <v>97.68472022810487</v>
       </c>
       <c r="V43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.68472022810488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="C44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292595</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="U44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="W44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="Y44" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
     </row>
     <row r="45">
@@ -30852,25 +30852,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="D46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="E46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="F46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="G46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="H46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -30903,22 +30903,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="T46" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>97.68472022810494</v>
       </c>
       <c r="X46" t="n">
-        <v>55.47778196371092</v>
+        <v>55.47778196371138</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2805413179413261</v>
+        <v>0.2805413179413371</v>
       </c>
       <c r="H8" t="n">
-        <v>2.873093772366607</v>
+        <v>2.873093772366719</v>
       </c>
       <c r="I8" t="n">
-        <v>10.81556915993299</v>
+        <v>10.81556915993341</v>
       </c>
       <c r="J8" t="n">
-        <v>23.81059368362265</v>
+        <v>23.81059368362358</v>
       </c>
       <c r="K8" t="n">
-        <v>35.68590767207899</v>
+        <v>35.68590767208039</v>
       </c>
       <c r="L8" t="n">
-        <v>44.27152403102586</v>
+        <v>44.2715240310276</v>
       </c>
       <c r="M8" t="n">
-        <v>49.26060069396492</v>
+        <v>49.26060069396684</v>
       </c>
       <c r="N8" t="n">
-        <v>50.05768871356572</v>
+        <v>50.05768871356767</v>
       </c>
       <c r="O8" t="n">
-        <v>47.26805598328665</v>
+        <v>47.2680559832885</v>
       </c>
       <c r="P8" t="n">
-        <v>40.34219219661016</v>
+        <v>40.34219219661173</v>
       </c>
       <c r="Q8" t="n">
-        <v>30.2953062478364</v>
+        <v>30.29530624783759</v>
       </c>
       <c r="R8" t="n">
-        <v>17.62255356313185</v>
+        <v>17.62255356313253</v>
       </c>
       <c r="S8" t="n">
-        <v>6.392835282587976</v>
+        <v>6.392835282588226</v>
       </c>
       <c r="T8" t="n">
-        <v>1.228069619288156</v>
+        <v>1.228069619288204</v>
       </c>
       <c r="U8" t="n">
-        <v>0.02244330543530609</v>
+        <v>0.02244330543530696</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1501028381796446</v>
+        <v>0.1501028381796504</v>
       </c>
       <c r="H9" t="n">
-        <v>1.449677410840252</v>
+        <v>1.449677410840308</v>
       </c>
       <c r="I9" t="n">
-        <v>5.168014384693904</v>
+        <v>5.168014384694105</v>
       </c>
       <c r="J9" t="n">
-        <v>14.18142647906897</v>
+        <v>14.18142647906952</v>
       </c>
       <c r="K9" t="n">
-        <v>24.23831663710515</v>
+        <v>24.2383166371061</v>
       </c>
       <c r="L9" t="n">
-        <v>32.59140791264608</v>
+        <v>32.59140791264735</v>
       </c>
       <c r="M9" t="n">
-        <v>38.03263579665818</v>
+        <v>38.03263579665967</v>
       </c>
       <c r="N9" t="n">
-        <v>39.03924649655589</v>
+        <v>39.03924649655742</v>
       </c>
       <c r="O9" t="n">
-        <v>35.71328360847008</v>
+        <v>35.71328360847148</v>
       </c>
       <c r="P9" t="n">
-        <v>28.66305863449722</v>
+        <v>28.66305863449834</v>
       </c>
       <c r="Q9" t="n">
-        <v>19.16049562447533</v>
+        <v>19.16049562447608</v>
       </c>
       <c r="R9" t="n">
-        <v>9.31954288276776</v>
+        <v>9.319542882768124</v>
       </c>
       <c r="S9" t="n">
-        <v>2.788094384608747</v>
+        <v>2.788094384608856</v>
       </c>
       <c r="T9" t="n">
-        <v>0.6050197731890057</v>
+        <v>0.6050197731890293</v>
       </c>
       <c r="U9" t="n">
-        <v>0.009875186722345041</v>
+        <v>0.009875186722345428</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.125841177248681</v>
+        <v>0.1258411772486859</v>
       </c>
       <c r="H10" t="n">
-        <v>1.118842466811001</v>
+        <v>1.118842466811045</v>
       </c>
       <c r="I10" t="n">
-        <v>3.784387403078517</v>
+        <v>3.784387403078665</v>
       </c>
       <c r="J10" t="n">
-        <v>8.896971231481746</v>
+        <v>8.896971231482095</v>
       </c>
       <c r="K10" t="n">
-        <v>14.62045677489221</v>
+        <v>14.62045677489278</v>
       </c>
       <c r="L10" t="n">
-        <v>18.70915102477209</v>
+        <v>18.70915102477282</v>
       </c>
       <c r="M10" t="n">
-        <v>19.72617653908188</v>
+        <v>19.72617653908265</v>
       </c>
       <c r="N10" t="n">
-        <v>19.25713215115499</v>
+        <v>19.25713215115574</v>
       </c>
       <c r="O10" t="n">
-        <v>17.78707839874994</v>
+        <v>17.78707839875063</v>
       </c>
       <c r="P10" t="n">
-        <v>15.21991838287683</v>
+        <v>15.21991838287743</v>
       </c>
       <c r="Q10" t="n">
-        <v>10.53748257852364</v>
+        <v>10.53748257852406</v>
       </c>
       <c r="R10" t="n">
-        <v>5.658276933381601</v>
+        <v>5.658276933381822</v>
       </c>
       <c r="S10" t="n">
-        <v>2.193068516233831</v>
+        <v>2.193068516233917</v>
       </c>
       <c r="T10" t="n">
-        <v>0.537685030062546</v>
+        <v>0.537685030062567</v>
       </c>
       <c r="U10" t="n">
-        <v>0.006864064213564426</v>
+        <v>0.006864064213564695</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,43 +31750,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
@@ -31835,40 +31835,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
         <v>138.937596729739</v>
@@ -31923,16 +31923,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
         <v>237.6785118802169</v>
@@ -31941,16 +31941,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H26" t="n">
         <v>44.86703772844668</v>
@@ -32944,40 +32944,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T26" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U26" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H27" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J27" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q27" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33096,43 +33096,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K28" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L28" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P28" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q28" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U28" t="n">
         <v>0.1071911508780295</v>
@@ -33266,7 +33266,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33509,7 +33509,7 @@
         <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
         <v>557.708647897025</v>
@@ -33743,7 +33743,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837925</v>
@@ -33989,7 +33989,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q39" t="n">
         <v>299.2156706987487</v>
@@ -34208,7 +34208,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
@@ -34229,7 +34229,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34448,10 +34448,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K45" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K12" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P12" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>72.49856320019262</v>
+        <v>72.49856320019265</v>
       </c>
       <c r="K13" t="n">
         <v>232.967806131446</v>
@@ -35586,7 +35586,7 @@
         <v>261.8772177322368</v>
       </c>
       <c r="Q13" t="n">
-        <v>105.31438512502</v>
+        <v>105.3143851250201</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>72.49856320019265</v>
+        <v>72.49856320019272</v>
       </c>
       <c r="K16" t="n">
-        <v>232.967806131446</v>
+        <v>232.9678061314461</v>
       </c>
       <c r="L16" t="n">
-        <v>346.6775187573245</v>
+        <v>346.6775187573246</v>
       </c>
       <c r="M16" t="n">
         <v>374.5535259806103</v>
       </c>
       <c r="N16" t="n">
-        <v>371.7770927546665</v>
+        <v>371.7770927546666</v>
       </c>
       <c r="O16" t="n">
         <v>329.2732768097662</v>
@@ -35823,7 +35823,7 @@
         <v>261.8772177322369</v>
       </c>
       <c r="Q16" t="n">
-        <v>105.3143851250201</v>
+        <v>105.3143851250202</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36136,7 +36136,7 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219371</v>
       </c>
       <c r="Q20" t="n">
         <v>250.7943048037195</v>
@@ -36364,22 +36364,22 @@
         <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>878.7355412086605</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>569.8360157337672</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597688</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O26" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>685.7637716667616</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.62350453597722</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q27" t="n">
         <v>159.2338966127272</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165887</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629122</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7325087887899</v>
+        <v>366.7325087887908</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120747</v>
       </c>
       <c r="N28" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861328</v>
       </c>
       <c r="O28" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412324</v>
       </c>
       <c r="P28" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637031</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564863</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923322</v>
@@ -36844,13 +36844,13 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>632.5715920432249</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>416.1845670468734</v>
       </c>
       <c r="R29" t="n">
         <v>125.3296184152072</v>
@@ -36914,7 +36914,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887904</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N31" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O31" t="n">
         <v>349.3282668412323</v>
@@ -37072,7 +37072,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>477.3399348174792</v>
       </c>
       <c r="M32" t="n">
         <v>538.9211158302268</v>
@@ -37081,16 +37081,16 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>632.5715920432249</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
         <v>415.1124034525806</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K34" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37391,7 +37391,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004592</v>
@@ -37564,7 +37564,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222479</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q39" t="n">
         <v>159.2338966127272</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597691</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
@@ -37877,7 +37877,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38096,10 +38096,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K45" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
